--- a/A_prepost_processing/AllCases/Vancouver_TopForcing_WithShading_WithCoolingcomparison.xlsx
+++ b/A_prepost_processing/AllCases/Vancouver_TopForcing_WithShading_WithCoolingcomparison.xlsx
@@ -1069,7 +1069,7 @@
         <v>99449.136</v>
       </c>
       <c r="Q10">
-        <v>16.47872742731147</v>
+        <v>16.47872742731158</v>
       </c>
       <c r="R10">
         <v>289.774</v>
@@ -52777,7 +52777,7 @@
         <v>99447.774</v>
       </c>
       <c r="Q844">
-        <v>19.21506991421251</v>
+        <v>19.21506991421245</v>
       </c>
       <c r="R844">
         <v>292.663</v>
@@ -92761,9 +92761,6 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>30.47</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
